--- a/raw_data/20200818_saline/20200818_Sensor3_Test_53.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_53.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044FA3CC-84E7-4046-B047-E0BCEC7556C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>47361.538915</v>
+        <v>47361.538914999997</v>
       </c>
       <c r="B2" s="1">
-        <v>13.155983</v>
+        <v>13.155983000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1147.950000</v>
+        <v>1147.95</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.996000</v>
+        <v>-258.99599999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>47371.925635</v>
@@ -496,148 +912,148 @@
         <v>13.158868</v>
       </c>
       <c r="H2" s="1">
-        <v>1169.580000</v>
+        <v>1169.58</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.438000</v>
+        <v>-217.43799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>47382.279127</v>
+        <v>47382.279127000002</v>
       </c>
       <c r="L2" s="1">
-        <v>13.161744</v>
+        <v>13.161744000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.254000</v>
+        <v>-151.25399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>47392.759592</v>
+        <v>47392.759592000002</v>
       </c>
       <c r="Q2" s="1">
         <v>13.164655</v>
       </c>
       <c r="R2" s="1">
-        <v>1205.150000</v>
+        <v>1205.1500000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.369000</v>
+        <v>-129.369</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>47403.341125</v>
+        <v>47403.341124999999</v>
       </c>
       <c r="V2" s="1">
         <v>13.167595</v>
       </c>
       <c r="W2" s="1">
-        <v>1212.550000</v>
+        <v>1212.55</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.278000</v>
+        <v>-108.27800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>47414.105916</v>
       </c>
       <c r="AA2" s="1">
-        <v>13.170585</v>
+        <v>13.170585000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1220.050000</v>
+        <v>1220.05</v>
       </c>
       <c r="AC2" s="1">
-        <v>-91.335600</v>
+        <v>-91.335599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>47424.719311</v>
+        <v>47424.719311000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.173533</v>
+        <v>13.173533000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.752100</v>
+        <v>-86.752099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>47435.134305</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.176426</v>
+        <v>13.176425999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM2" s="1">
-        <v>-90.113100</v>
+        <v>-90.113100000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>47445.672803</v>
+        <v>47445.672803000001</v>
       </c>
       <c r="AP2" s="1">
         <v>13.179354</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.930000</v>
+        <v>1239.93</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.170000</v>
+        <v>-102.17</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>47457.022788</v>
+        <v>47457.022788000002</v>
       </c>
       <c r="AU2" s="1">
         <v>13.182506</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.762000</v>
+        <v>-121.762</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>47468.190709</v>
+        <v>47468.190709000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>13.185609</v>
+        <v>13.185608999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.389000</v>
+        <v>-139.38900000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>47478.820969</v>
@@ -646,58 +1062,58 @@
         <v>13.188561</v>
       </c>
       <c r="BF2" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-222.301000</v>
+        <v>-222.30099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>47489.831128</v>
+        <v>47489.831127999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.191620</v>
+        <v>13.19162</v>
       </c>
       <c r="BK2" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL2" s="1">
-        <v>-360.556000</v>
+        <v>-360.55599999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>47500.858713</v>
+        <v>47500.858713000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>13.194683</v>
+        <v>13.194682999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1483.570000</v>
+        <v>1483.57</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-586.012000</v>
+        <v>-586.01199999999994</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>47511.616907</v>
+        <v>47511.616907000003</v>
       </c>
       <c r="BT2" s="1">
         <v>13.197671</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.590000</v>
+        <v>1616.59</v>
       </c>
       <c r="BV2" s="1">
-        <v>-841.305000</v>
+        <v>-841.30499999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>47522.329007</v>
@@ -706,135 +1122,135 @@
         <v>13.200647</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.290000</v>
+        <v>1770.29</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1118.140000</v>
+        <v>-1118.1400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>47533.488525</v>
+        <v>47533.488525000001</v>
       </c>
       <c r="CD2" s="1">
         <v>13.203747</v>
       </c>
       <c r="CE2" s="1">
-        <v>2194.040000</v>
+        <v>2194.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1789.460000</v>
+        <v>-1789.46</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>47361.900036</v>
+        <v>47361.900035999999</v>
       </c>
       <c r="B3" s="1">
-        <v>13.156083</v>
+        <v>13.156083000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>1148.000000</v>
+        <v>1148</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.177000</v>
+        <v>-259.17700000000002</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>47372.297140</v>
+        <v>47372.297140000002</v>
       </c>
       <c r="G3" s="1">
-        <v>13.158971</v>
+        <v>13.158970999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1169.920000</v>
+        <v>1169.92</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.496000</v>
+        <v>-217.49600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>47382.646167</v>
+        <v>47382.646166999999</v>
       </c>
       <c r="L3" s="1">
-        <v>13.161846</v>
+        <v>13.161846000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1197.050000</v>
+        <v>1197.05</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.497000</v>
+        <v>-151.49700000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>47393.491985</v>
+        <v>47393.491985000001</v>
       </c>
       <c r="Q3" s="1">
         <v>13.164859</v>
       </c>
       <c r="R3" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.321000</v>
+        <v>-129.321</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>47404.055481</v>
+        <v>47404.055481000003</v>
       </c>
       <c r="V3" s="1">
         <v>13.167793</v>
       </c>
       <c r="W3" s="1">
-        <v>1212.410000</v>
+        <v>1212.4100000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.400000</v>
+        <v>-108.4</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>47414.491803</v>
+        <v>47414.491802999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.170692</v>
+        <v>13.170692000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1220.160000</v>
+        <v>1220.1600000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.419600</v>
+        <v>-91.419600000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>47425.068029</v>
+        <v>47425.068029000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.173630</v>
+        <v>13.173629999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1224.910000</v>
+        <v>1224.9100000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.667700</v>
+        <v>-86.667699999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>47435.488975</v>
@@ -843,572 +1259,572 @@
         <v>13.176525</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM3" s="1">
-        <v>-90.125600</v>
+        <v>-90.125600000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>47446.368227</v>
+        <v>47446.368226999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.179547</v>
+        <v>13.179546999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.890000</v>
+        <v>1239.8900000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>47457.475603</v>
+        <v>47457.475602999999</v>
       </c>
       <c r="AU3" s="1">
         <v>13.182632</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.725000</v>
+        <v>-121.72499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>47468.600372</v>
+        <v>47468.600372000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.185722</v>
       </c>
       <c r="BA3" s="1">
-        <v>1258.360000</v>
+        <v>1258.3599999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.402000</v>
+        <v>-139.40199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>47479.184509</v>
+        <v>47479.184508999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.188662</v>
+        <v>13.188662000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG3" s="1">
-        <v>-222.268000</v>
+        <v>-222.268</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>47490.212057</v>
+        <v>47490.212056999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.191726</v>
+        <v>13.191725999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1368.540000</v>
+        <v>1368.54</v>
       </c>
       <c r="BL3" s="1">
-        <v>-360.486000</v>
+        <v>-360.48599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>47501.288750</v>
+        <v>47501.28875</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.194802</v>
+        <v>13.194801999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-586.018000</v>
+        <v>-586.01800000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>47512.061820</v>
+        <v>47512.061820000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.197795</v>
+        <v>13.197794999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.470000</v>
+        <v>1616.47</v>
       </c>
       <c r="BV3" s="1">
-        <v>-841.268000</v>
+        <v>-841.26800000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>47522.787310</v>
+        <v>47522.78731</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.200774</v>
+        <v>13.200773999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.450000</v>
+        <v>1770.45</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1118.100000</v>
+        <v>-1118.0999999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>47533.801470</v>
+        <v>47533.801469999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.203834</v>
+        <v>13.203834000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2194.350000</v>
+        <v>2194.35</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1790.800000</v>
+        <v>-1790.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>47362.240752</v>
+        <v>47362.240751999998</v>
       </c>
       <c r="B4" s="1">
-        <v>13.156178</v>
+        <v>13.156178000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>1148.060000</v>
+        <v>1148.06</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.530000</v>
+        <v>-258.52999999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>47372.849719</v>
+        <v>47372.849718999998</v>
       </c>
       <c r="G4" s="1">
         <v>13.159125</v>
       </c>
       <c r="H4" s="1">
-        <v>1169.650000</v>
+        <v>1169.6500000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.282000</v>
+        <v>-217.28200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>47383.334116</v>
+        <v>47383.334115999998</v>
       </c>
       <c r="L4" s="1">
         <v>13.162037</v>
       </c>
       <c r="M4" s="1">
-        <v>1197.350000</v>
+        <v>1197.3499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.539000</v>
+        <v>-151.53899999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>47393.839384</v>
+        <v>47393.839383999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.164955</v>
+        <v>13.164955000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.297000</v>
+        <v>-129.297</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>47404.398217</v>
+        <v>47404.398217000002</v>
       </c>
       <c r="V4" s="1">
         <v>13.167888</v>
       </c>
       <c r="W4" s="1">
-        <v>1212.450000</v>
+        <v>1212.45</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.356000</v>
+        <v>-108.35599999999999</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>47414.839499</v>
+        <v>47414.839499000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>13.170789</v>
+        <v>13.170788999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1220.070000</v>
+        <v>1220.07</v>
       </c>
       <c r="AC4" s="1">
-        <v>-91.215600</v>
+        <v>-91.215599999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>47425.723212</v>
+        <v>47425.723211999997</v>
       </c>
       <c r="AF4" s="1">
         <v>13.173812</v>
       </c>
       <c r="AG4" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.705400</v>
+        <v>-86.705399999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>47436.148624</v>
+        <v>47436.148624000001</v>
       </c>
       <c r="AK4" s="1">
         <v>13.176708</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.990000</v>
+        <v>1231.99</v>
       </c>
       <c r="AM4" s="1">
-        <v>-90.109000</v>
+        <v>-90.108999999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>47446.785329</v>
+        <v>47446.785328999998</v>
       </c>
       <c r="AP4" s="1">
         <v>13.179663</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.890000</v>
+        <v>1239.8900000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>47457.840162</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.182733</v>
+        <v>13.182733000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.940000</v>
+        <v>1249.94</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.715000</v>
+        <v>-121.715</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>47468.957523</v>
+        <v>47468.957522999997</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.185822</v>
       </c>
       <c r="BA4" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.388000</v>
+        <v>-139.38800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>47479.544630</v>
+        <v>47479.544629999997</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.188762</v>
+        <v>13.188762000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1298.620000</v>
+        <v>1298.6199999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-222.305000</v>
+        <v>-222.30500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>47490.640600</v>
+        <v>47490.640599999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.191845</v>
+        <v>13.191845000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1368.500000</v>
+        <v>1368.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-360.508000</v>
+        <v>-360.50799999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>47501.706840</v>
+        <v>47501.706839999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>13.194919</v>
+        <v>13.194919000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-586.050000</v>
+        <v>-586.04999999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>47512.495819</v>
+        <v>47512.495819000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>13.197916</v>
+        <v>13.197915999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1616.320000</v>
+        <v>1616.32</v>
       </c>
       <c r="BV4" s="1">
-        <v>-841.402000</v>
+        <v>-841.40200000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>47523.210893</v>
+        <v>47523.210893000003</v>
       </c>
       <c r="BY4" s="1">
         <v>13.200892</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1770.380000</v>
+        <v>1770.38</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1118.110000</v>
+        <v>-1118.1099999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>47534.335165</v>
+        <v>47534.335164999997</v>
       </c>
       <c r="CD4" s="1">
         <v>13.203982</v>
       </c>
       <c r="CE4" s="1">
-        <v>2192.070000</v>
+        <v>2192.0700000000002</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1789.970000</v>
+        <v>-1789.97</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>47362.927216</v>
+        <v>47362.927215999996</v>
       </c>
       <c r="B5" s="1">
         <v>13.156369</v>
       </c>
       <c r="C5" s="1">
-        <v>1148.000000</v>
+        <v>1148</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.884000</v>
+        <v>-258.88400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>47372.986114</v>
+        <v>47372.986113999999</v>
       </c>
       <c r="G5" s="1">
-        <v>13.159163</v>
+        <v>13.159162999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>1168.830000</v>
+        <v>1168.83</v>
       </c>
       <c r="I5" s="1">
-        <v>-217.351000</v>
+        <v>-217.351</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>47383.679860</v>
+        <v>47383.679859999997</v>
       </c>
       <c r="L5" s="1">
-        <v>13.162133</v>
+        <v>13.162133000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1197.230000</v>
+        <v>1197.23</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.444000</v>
+        <v>-151.44399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>47394.189558</v>
+        <v>47394.189557999998</v>
       </c>
       <c r="Q5" s="1">
         <v>13.165053</v>
       </c>
       <c r="R5" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.222000</v>
+        <v>-129.22200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>47404.741450</v>
+        <v>47404.741450000001</v>
       </c>
       <c r="V5" s="1">
-        <v>13.167984</v>
+        <v>13.167984000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.327000</v>
+        <v>-108.327</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>47415.493226</v>
+        <v>47415.493225999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.170970</v>
+        <v>13.170970000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC5" s="1">
-        <v>-91.239300</v>
+        <v>-91.2393</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>47426.093724</v>
+        <v>47426.093723999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.173915</v>
+        <v>13.173914999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.698600</v>
+        <v>-86.698599999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>47436.533022</v>
+        <v>47436.533022000003</v>
       </c>
       <c r="AK5" s="1">
         <v>13.176815</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM5" s="1">
-        <v>-90.126400</v>
+        <v>-90.126400000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>47447.162820</v>
+        <v>47447.162819999998</v>
       </c>
       <c r="AP5" s="1">
         <v>13.179767</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.157000</v>
+        <v>-102.157</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>47458.203237</v>
+        <v>47458.203237000002</v>
       </c>
       <c r="AU5" s="1">
         <v>13.182834</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.730000</v>
+        <v>-121.73</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>47469.317587</v>
+        <v>47469.317586999998</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.185922</v>
       </c>
       <c r="BA5" s="1">
-        <v>1258.390000</v>
+        <v>1258.3900000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.386000</v>
+        <v>-139.386</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>47479.964215</v>
@@ -1417,28 +1833,28 @@
         <v>13.188879</v>
       </c>
       <c r="BF5" s="1">
-        <v>1298.560000</v>
+        <v>1298.56</v>
       </c>
       <c r="BG5" s="1">
-        <v>-222.262000</v>
+        <v>-222.262</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>47490.982369</v>
+        <v>47490.982368999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.191940</v>
+        <v>13.191940000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL5" s="1">
-        <v>-360.564000</v>
+        <v>-360.56400000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>47502.102649</v>
@@ -1447,28 +1863,28 @@
         <v>13.195029</v>
       </c>
       <c r="BP5" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-586.040000</v>
+        <v>-586.04</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>47512.923369</v>
+        <v>47512.923368999996</v>
       </c>
       <c r="BT5" s="1">
         <v>13.198034</v>
       </c>
       <c r="BU5" s="1">
-        <v>1616.190000</v>
+        <v>1616.19</v>
       </c>
       <c r="BV5" s="1">
-        <v>-841.314000</v>
+        <v>-841.31399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>47523.647867</v>
@@ -1477,482 +1893,482 @@
         <v>13.201013</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.320000</v>
+        <v>1770.32</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1117.980000</v>
+        <v>-1117.98</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>47534.874812</v>
+        <v>47534.874812000002</v>
       </c>
       <c r="CD5" s="1">
         <v>13.204132</v>
       </c>
       <c r="CE5" s="1">
-        <v>2194.230000</v>
+        <v>2194.23</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1792.260000</v>
+        <v>-1792.26</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>47363.268989</v>
+        <v>47363.268988999997</v>
       </c>
       <c r="B6" s="1">
         <v>13.156464</v>
       </c>
       <c r="C6" s="1">
-        <v>1148.010000</v>
+        <v>1148.01</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.593000</v>
+        <v>-258.59300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>47373.331795</v>
+        <v>47373.331794999998</v>
       </c>
       <c r="G6" s="1">
         <v>13.159259</v>
       </c>
       <c r="H6" s="1">
-        <v>1169.820000</v>
+        <v>1169.82</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.732000</v>
+        <v>-217.732</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>47384.028021</v>
+        <v>47384.028020999998</v>
       </c>
       <c r="L6" s="1">
-        <v>13.162230</v>
+        <v>13.162229999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.525000</v>
+        <v>-151.52500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>47394.847255</v>
+        <v>47394.847255000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.165235</v>
+        <v>13.165234999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1205.180000</v>
+        <v>1205.18</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.369000</v>
+        <v>-129.369</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>47405.389225</v>
+        <v>47405.389224999999</v>
       </c>
       <c r="V6" s="1">
-        <v>13.168164</v>
+        <v>13.168164000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.332000</v>
+        <v>-108.33199999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>47415.882090</v>
+        <v>47415.882089999999</v>
       </c>
       <c r="AA6" s="1">
         <v>13.171078</v>
       </c>
       <c r="AB6" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AC6" s="1">
-        <v>-91.250300</v>
+        <v>-91.250299999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>47426.439437</v>
+        <v>47426.439437000001</v>
       </c>
       <c r="AF6" s="1">
         <v>13.174011</v>
       </c>
       <c r="AG6" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.687700</v>
+        <v>-86.687700000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>47436.881215</v>
+        <v>47436.881215000001</v>
       </c>
       <c r="AK6" s="1">
         <v>13.176911</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM6" s="1">
-        <v>-90.119400</v>
+        <v>-90.119399999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>47447.551648</v>
+        <v>47447.551648000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.179875</v>
+        <v>13.179874999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.930000</v>
+        <v>1239.93</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.183000</v>
+        <v>-102.18300000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>47458.621361</v>
+        <v>47458.621360999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>13.182950</v>
+        <v>13.18295</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.880000</v>
+        <v>1249.8800000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.716000</v>
+        <v>-121.71599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>47469.736708</v>
+        <v>47469.736707999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.186038</v>
       </c>
       <c r="BA6" s="1">
-        <v>1258.380000</v>
+        <v>1258.3800000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.399000</v>
+        <v>-139.399</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>47480.261844</v>
+        <v>47480.261844000001</v>
       </c>
       <c r="BE6" s="1">
         <v>13.188962</v>
       </c>
       <c r="BF6" s="1">
-        <v>1298.600000</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-222.272000</v>
+        <v>-222.27199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>47491.357813</v>
+        <v>47491.357813000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.192044</v>
+        <v>13.192043999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1368.560000</v>
+        <v>1368.56</v>
       </c>
       <c r="BL6" s="1">
-        <v>-360.514000</v>
+        <v>-360.51400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>47502.523752</v>
+        <v>47502.523752000001</v>
       </c>
       <c r="BO6" s="1">
         <v>13.195145</v>
       </c>
       <c r="BP6" s="1">
-        <v>1483.610000</v>
+        <v>1483.61</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-585.984000</v>
+        <v>-585.98400000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>47513.336073</v>
+        <v>47513.336072999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>13.198149</v>
+        <v>13.198149000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1616.140000</v>
+        <v>1616.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-841.078000</v>
+        <v>-841.07799999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>47524.080881</v>
+        <v>47524.080881000002</v>
       </c>
       <c r="BY6" s="1">
         <v>13.201134</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1770.290000</v>
+        <v>1770.29</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1117.930000</v>
+        <v>-1117.93</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>47535.413964</v>
+        <v>47535.413963999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.204282</v>
+        <v>13.204281999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2193.620000</v>
+        <v>2193.62</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1790.100000</v>
+        <v>-1790.1</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>47363.616655</v>
+        <v>47363.616654999998</v>
       </c>
       <c r="B7" s="1">
-        <v>13.156560</v>
+        <v>13.156560000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1148.050000</v>
+        <v>1148.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.556000</v>
+        <v>-258.55599999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>47374.003377</v>
+        <v>47374.003377000001</v>
       </c>
       <c r="G7" s="1">
         <v>13.159445</v>
       </c>
       <c r="H7" s="1">
-        <v>1169.690000</v>
+        <v>1169.69</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.190000</v>
+        <v>-217.19</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>47384.686212</v>
+        <v>47384.686212000001</v>
       </c>
       <c r="L7" s="1">
-        <v>13.162413</v>
+        <v>13.162413000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1197.230000</v>
+        <v>1197.23</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.630000</v>
+        <v>-151.63</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>47395.236613</v>
+        <v>47395.236613000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.165344</v>
+        <v>13.165343999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.392000</v>
+        <v>-129.392</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>47405.812808</v>
+        <v>47405.812808000002</v>
       </c>
       <c r="V7" s="1">
         <v>13.168281</v>
       </c>
       <c r="W7" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.353000</v>
+        <v>-108.35299999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>47416.233754</v>
+        <v>47416.233754000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.171176</v>
+        <v>13.171176000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1220.140000</v>
+        <v>1220.1400000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-91.171800</v>
+        <v>-91.171800000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>47426.782700</v>
+        <v>47426.782700000003</v>
       </c>
       <c r="AF7" s="1">
         <v>13.174106</v>
       </c>
       <c r="AG7" s="1">
-        <v>1224.780000</v>
+        <v>1224.78</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.764700</v>
+        <v>-86.764700000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>47437.231886</v>
+        <v>47437.231886000001</v>
       </c>
       <c r="AK7" s="1">
         <v>13.177009</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.940000</v>
+        <v>1231.94</v>
       </c>
       <c r="AM7" s="1">
-        <v>-90.119500</v>
+        <v>-90.119500000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>47447.975231</v>
+        <v>47447.975230999997</v>
       </c>
       <c r="AP7" s="1">
         <v>13.179993</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.184000</v>
+        <v>-102.184</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>47458.929873</v>
+        <v>47458.929873000001</v>
       </c>
       <c r="AU7" s="1">
         <v>13.183036</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.730000</v>
+        <v>-121.73</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>47470.035299</v>
+        <v>47470.035299000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.186121</v>
       </c>
       <c r="BA7" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.410000</v>
+        <v>-139.41</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>47480.627894</v>
+        <v>47480.627893999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.189063</v>
+        <v>13.189063000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG7" s="1">
-        <v>-222.274000</v>
+        <v>-222.274</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>47491.735306</v>
+        <v>47491.735306000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.192149</v>
+        <v>13.192149000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL7" s="1">
-        <v>-360.543000</v>
+        <v>-360.54300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>47502.924519</v>
@@ -1961,13 +2377,13 @@
         <v>13.195257</v>
       </c>
       <c r="BP7" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-586.062000</v>
+        <v>-586.06200000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>47513.767065</v>
@@ -1976,437 +2392,437 @@
         <v>13.198269</v>
       </c>
       <c r="BU7" s="1">
-        <v>1616.110000</v>
+        <v>1616.11</v>
       </c>
       <c r="BV7" s="1">
-        <v>-841.028000</v>
+        <v>-841.02800000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>47524.503469</v>
+        <v>47524.503469000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.201251</v>
+        <v>13.201250999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.320000</v>
+        <v>1770.32</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1118.180000</v>
+        <v>-1118.18</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>47535.956619</v>
+        <v>47535.956618999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.204432</v>
+        <v>13.204432000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2192.100000</v>
+        <v>2192.1</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1791.920000</v>
+        <v>-1791.92</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>47364.264926</v>
+        <v>47364.264926000003</v>
       </c>
       <c r="B8" s="1">
-        <v>13.156740</v>
+        <v>13.156739999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1147.780000</v>
+        <v>1147.78</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.917000</v>
+        <v>-258.91699999999997</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>47374.363968</v>
+        <v>47374.363967999998</v>
       </c>
       <c r="G8" s="1">
-        <v>13.159546</v>
+        <v>13.159546000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1168.120000</v>
+        <v>1168.1199999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.321000</v>
+        <v>-217.321</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>47385.066643</v>
+        <v>47385.066642999998</v>
       </c>
       <c r="L8" s="1">
         <v>13.162519</v>
       </c>
       <c r="M8" s="1">
-        <v>1197.230000</v>
+        <v>1197.23</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.522000</v>
+        <v>-151.52199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>47395.584310</v>
+        <v>47395.584309999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.165440</v>
+        <v>13.16544</v>
       </c>
       <c r="R8" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.392000</v>
+        <v>-129.392</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>47406.124791</v>
+        <v>47406.124791000002</v>
       </c>
       <c r="V8" s="1">
-        <v>13.168368</v>
+        <v>13.168367999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.395000</v>
+        <v>-108.395</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>47416.583961</v>
+        <v>47416.583960999997</v>
       </c>
       <c r="AA8" s="1">
-        <v>13.171273</v>
+        <v>13.171272999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>1220.070000</v>
+        <v>1220.07</v>
       </c>
       <c r="AC8" s="1">
-        <v>-91.321300</v>
+        <v>-91.321299999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>47427.202284</v>
+        <v>47427.202283999999</v>
       </c>
       <c r="AF8" s="1">
         <v>13.174223</v>
       </c>
       <c r="AG8" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.755300</v>
+        <v>-86.755300000000005</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>47437.658972</v>
+        <v>47437.658971999997</v>
       </c>
       <c r="AK8" s="1">
         <v>13.177127</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM8" s="1">
-        <v>-90.111600</v>
+        <v>-90.111599999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>47448.273326</v>
+        <v>47448.273326000002</v>
       </c>
       <c r="AP8" s="1">
         <v>13.180076</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.191000</v>
+        <v>-102.191</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>47459.298896</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.183139</v>
+        <v>13.183139000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.708000</v>
+        <v>-121.708</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>47470.392913</v>
+        <v>47470.392913000003</v>
       </c>
       <c r="AZ8" s="1">
-        <v>13.186220</v>
+        <v>13.18622</v>
       </c>
       <c r="BA8" s="1">
-        <v>1258.350000</v>
+        <v>1258.3499999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.406000</v>
+        <v>-139.40600000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>47480.989476</v>
+        <v>47480.989476000002</v>
       </c>
       <c r="BE8" s="1">
         <v>13.189164</v>
       </c>
       <c r="BF8" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG8" s="1">
-        <v>-222.295000</v>
+        <v>-222.29499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>47492.484230</v>
+        <v>47492.484230000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>13.192357</v>
+        <v>13.192356999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL8" s="1">
-        <v>-360.534000</v>
+        <v>-360.53399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>47503.340203</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.195372</v>
+        <v>13.195372000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-586.039000</v>
+        <v>-586.03899999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>47514.195608</v>
+        <v>47514.195608000002</v>
       </c>
       <c r="BT8" s="1">
         <v>13.198388</v>
       </c>
       <c r="BU8" s="1">
-        <v>1616.050000</v>
+        <v>1616.05</v>
       </c>
       <c r="BV8" s="1">
-        <v>-840.889000</v>
+        <v>-840.88900000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>47524.926555</v>
+        <v>47524.926554999998</v>
       </c>
       <c r="BY8" s="1">
         <v>13.201368</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1770.400000</v>
+        <v>1770.4</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1118.050000</v>
+        <v>-1118.05</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>47536.491306</v>
+        <v>47536.491306000004</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.204581</v>
+        <v>13.204580999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>2194.750000</v>
+        <v>2194.75</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1790.770000</v>
+        <v>-1790.77</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>47364.640398</v>
+        <v>47364.640398000003</v>
       </c>
       <c r="B9" s="1">
-        <v>13.156845</v>
+        <v>13.156845000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1147.990000</v>
+        <v>1147.99</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.824000</v>
+        <v>-258.82400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>47374.711169</v>
+        <v>47374.711169000002</v>
       </c>
       <c r="G9" s="1">
         <v>13.159642</v>
       </c>
       <c r="H9" s="1">
-        <v>1169.610000</v>
+        <v>1169.6099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.833000</v>
+        <v>-216.833</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>47385.411394</v>
+        <v>47385.411394000002</v>
       </c>
       <c r="L9" s="1">
         <v>13.162614</v>
       </c>
       <c r="M9" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.512000</v>
+        <v>-151.512</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>47395.933988</v>
+        <v>47395.933987999997</v>
       </c>
       <c r="Q9" s="1">
         <v>13.165537</v>
       </c>
       <c r="R9" s="1">
-        <v>1205.160000</v>
+        <v>1205.1600000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.301000</v>
+        <v>-129.30099999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>47406.550389</v>
+        <v>47406.550389000004</v>
       </c>
       <c r="V9" s="1">
         <v>13.168486</v>
       </c>
       <c r="W9" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.317000</v>
+        <v>-108.31699999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>47417.008504</v>
+        <v>47417.008503999998</v>
       </c>
       <c r="AA9" s="1">
         <v>13.171391</v>
       </c>
       <c r="AB9" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-91.030600</v>
+        <v>-91.030600000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>47427.480572</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.174300</v>
+        <v>13.174300000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1224.720000</v>
+        <v>1224.72</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.798000</v>
+        <v>-86.798000000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>47437.930253</v>
+        <v>47437.930252999999</v>
       </c>
       <c r="AK9" s="1">
         <v>13.177203</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM9" s="1">
-        <v>-90.134100</v>
+        <v>-90.134100000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>47448.631936</v>
+        <v>47448.631935999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.180176</v>
+        <v>13.180175999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.920000</v>
+        <v>1239.92</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>47459.661968</v>
@@ -2415,452 +2831,452 @@
         <v>13.183239</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.930000</v>
+        <v>1249.93</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.734000</v>
+        <v>-121.73399999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>47470.751521</v>
+        <v>47470.751520999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.186320</v>
+        <v>13.18632</v>
       </c>
       <c r="BA9" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.393000</v>
+        <v>-139.393</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>47481.711619</v>
+        <v>47481.711619000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.189364</v>
+        <v>13.189363999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-222.299000</v>
+        <v>-222.29900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>47492.861187</v>
+        <v>47492.861187000002</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.192461</v>
       </c>
       <c r="BK9" s="1">
-        <v>1368.480000</v>
+        <v>1368.48</v>
       </c>
       <c r="BL9" s="1">
-        <v>-360.563000</v>
+        <v>-360.56299999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>47503.738951</v>
+        <v>47503.738950999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.195483</v>
+        <v>13.195482999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-586.006000</v>
+        <v>-586.00599999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>47514.605799</v>
+        <v>47514.605798999997</v>
       </c>
       <c r="BT9" s="1">
         <v>13.198502</v>
       </c>
       <c r="BU9" s="1">
-        <v>1616.170000</v>
+        <v>1616.17</v>
       </c>
       <c r="BV9" s="1">
-        <v>-840.787000</v>
+        <v>-840.78700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>47525.661660</v>
+        <v>47525.661659999998</v>
       </c>
       <c r="BY9" s="1">
         <v>13.201573</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.140000</v>
+        <v>1770.14</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1117.940000</v>
+        <v>-1117.94</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>47537.349385</v>
+        <v>47537.349385000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>13.204819</v>
+        <v>13.204819000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2192.910000</v>
+        <v>2192.91</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1792.320000</v>
+        <v>-1792.32</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>47364.989612</v>
+        <v>47364.989611999998</v>
       </c>
       <c r="B10" s="1">
-        <v>13.156942</v>
+        <v>13.156942000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1147.880000</v>
+        <v>1147.8800000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.788000</v>
+        <v>-258.78800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>47375.054401</v>
+        <v>47375.054401000001</v>
       </c>
       <c r="G10" s="1">
         <v>13.159737</v>
       </c>
       <c r="H10" s="1">
-        <v>1169.220000</v>
+        <v>1169.22</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.814000</v>
+        <v>-217.81399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>47385.759554</v>
+        <v>47385.759553999997</v>
       </c>
       <c r="L10" s="1">
         <v>13.162711</v>
       </c>
       <c r="M10" s="1">
-        <v>1197.170000</v>
+        <v>1197.17</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.421000</v>
+        <v>-151.42099999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>47396.357077</v>
+        <v>47396.357077000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.165655</v>
+        <v>13.165654999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1205.160000</v>
+        <v>1205.1600000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.265000</v>
+        <v>-129.26499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>47406.831095</v>
+        <v>47406.831095000001</v>
       </c>
       <c r="V10" s="1">
         <v>13.168564</v>
       </c>
       <c r="W10" s="1">
-        <v>1212.530000</v>
+        <v>1212.53</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.358000</v>
+        <v>-108.358</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>47417.286301</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.171468</v>
+        <v>13.171468000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1220.070000</v>
+        <v>1220.07</v>
       </c>
       <c r="AC10" s="1">
-        <v>-91.384400</v>
+        <v>-91.384399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>47427.825258</v>
+        <v>47427.825257999997</v>
       </c>
       <c r="AF10" s="1">
         <v>13.174396</v>
       </c>
       <c r="AG10" s="1">
-        <v>1224.940000</v>
+        <v>1224.94</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.686400</v>
+        <v>-86.686400000000006</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>47438.279932</v>
+        <v>47438.279931999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>13.177300</v>
+        <v>13.177300000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM10" s="1">
-        <v>-90.128300</v>
+        <v>-90.128299999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>47448.993054</v>
+        <v>47448.993053999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.180276</v>
+        <v>13.180275999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.168000</v>
+        <v>-102.16800000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>47460.389600</v>
+        <v>47460.389600000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.183442</v>
+        <v>13.183441999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.754000</v>
+        <v>-121.754</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>47471.470224</v>
+        <v>47471.470223999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>13.186520</v>
+        <v>13.18652</v>
       </c>
       <c r="BA10" s="1">
-        <v>1258.380000</v>
+        <v>1258.3800000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.392000</v>
+        <v>-139.392</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>47482.101526</v>
+        <v>47482.101525999999</v>
       </c>
       <c r="BE10" s="1">
         <v>13.189473</v>
       </c>
       <c r="BF10" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG10" s="1">
-        <v>-222.300000</v>
+        <v>-222.3</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>47493.235700</v>
+        <v>47493.235699999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.192565</v>
       </c>
       <c r="BK10" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL10" s="1">
-        <v>-360.521000</v>
+        <v>-360.52100000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>47504.162038</v>
+        <v>47504.162038000002</v>
       </c>
       <c r="BO10" s="1">
         <v>13.195601</v>
       </c>
       <c r="BP10" s="1">
-        <v>1483.630000</v>
+        <v>1483.63</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-586.025000</v>
+        <v>-586.02499999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>47515.348842</v>
+        <v>47515.348841999999</v>
       </c>
       <c r="BT10" s="1">
         <v>13.198708</v>
       </c>
       <c r="BU10" s="1">
-        <v>1616.260000</v>
+        <v>1616.26</v>
       </c>
       <c r="BV10" s="1">
-        <v>-840.587000</v>
+        <v>-840.58699999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>47525.789592</v>
+        <v>47525.789592000001</v>
       </c>
       <c r="BY10" s="1">
         <v>13.201608</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.290000</v>
+        <v>1770.29</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1117.990000</v>
+        <v>-1117.99</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>47537.571066</v>
+        <v>47537.571065999997</v>
       </c>
       <c r="CD10" s="1">
         <v>13.204881</v>
       </c>
       <c r="CE10" s="1">
-        <v>2192.360000</v>
+        <v>2192.36</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1792.290000</v>
+        <v>-1792.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>47365.330830</v>
+        <v>47365.330829999999</v>
       </c>
       <c r="B11" s="1">
         <v>13.157036</v>
       </c>
       <c r="C11" s="1">
-        <v>1148.020000</v>
+        <v>1148.02</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.512000</v>
+        <v>-258.512</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>47375.482448</v>
+        <v>47375.482448000002</v>
       </c>
       <c r="G11" s="1">
         <v>13.159856</v>
       </c>
       <c r="H11" s="1">
-        <v>1169.400000</v>
+        <v>1169.4000000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.672000</v>
+        <v>-217.672</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>47386.190577</v>
+        <v>47386.190577000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.162831</v>
+        <v>13.162831000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.294000</v>
+        <v>-151.29400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>47396.633381</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.165731</v>
+        <v>13.165730999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1205.150000</v>
+        <v>1205.1500000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.177000</v>
+        <v>-129.17699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>47407.174325</v>
       </c>
       <c r="V11" s="1">
-        <v>13.168660</v>
+        <v>13.168659999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.411000</v>
+        <v>-108.411</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>47417.631512</v>
@@ -2869,58 +3285,58 @@
         <v>13.171564</v>
       </c>
       <c r="AB11" s="1">
-        <v>1220.020000</v>
+        <v>1220.02</v>
       </c>
       <c r="AC11" s="1">
-        <v>-91.296000</v>
+        <v>-91.296000000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>47428.165513</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.174490</v>
+        <v>13.17449</v>
       </c>
       <c r="AG11" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.641100</v>
+        <v>-86.641099999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>47438.630107</v>
+        <v>47438.630106999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.177397</v>
+        <v>13.177396999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM11" s="1">
-        <v>-90.098500</v>
+        <v>-90.098500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>47449.719165</v>
+        <v>47449.719165000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.180478</v>
+        <v>13.180478000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.920000</v>
+        <v>1239.92</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>47460.783422</v>
@@ -2929,58 +3345,58 @@
         <v>13.183551</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.880000</v>
+        <v>1249.8800000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.715000</v>
+        <v>-121.715</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>47471.826388</v>
+        <v>47471.826388000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.186618</v>
+        <v>13.186617999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1258.350000</v>
+        <v>1258.3499999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.382000</v>
+        <v>-139.38200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>47482.480914</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.189578</v>
+        <v>13.189577999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1298.600000</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-222.306000</v>
+        <v>-222.30600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>47493.924147</v>
+        <v>47493.924146999998</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.192757</v>
       </c>
       <c r="BK11" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL11" s="1">
-        <v>-360.545000</v>
+        <v>-360.54500000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>47504.874292</v>
@@ -2989,120 +3405,120 @@
         <v>13.195798</v>
       </c>
       <c r="BP11" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-586.044000</v>
+        <v>-586.04399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>47515.465401</v>
+        <v>47515.465401000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>13.198740</v>
+        <v>13.198740000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1616.250000</v>
+        <v>1616.25</v>
       </c>
       <c r="BV11" s="1">
-        <v>-840.494000</v>
+        <v>-840.49400000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>47526.204744</v>
+        <v>47526.204744000002</v>
       </c>
       <c r="BY11" s="1">
         <v>13.201724</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.360000</v>
+        <v>1770.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1118.210000</v>
+        <v>-1118.21</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>47538.093352</v>
+        <v>47538.093352000004</v>
       </c>
       <c r="CD11" s="1">
         <v>13.205026</v>
       </c>
       <c r="CE11" s="1">
-        <v>2194.760000</v>
+        <v>2194.7600000000002</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1791.500000</v>
+        <v>-1791.5</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>47365.751437</v>
+        <v>47365.751436999999</v>
       </c>
       <c r="B12" s="1">
-        <v>13.157153</v>
+        <v>13.157152999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1147.710000</v>
+        <v>1147.71</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.695000</v>
+        <v>-258.69499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>47375.757230</v>
+        <v>47375.757230000003</v>
       </c>
       <c r="G12" s="1">
-        <v>13.159933</v>
+        <v>13.159933000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1169.750000</v>
+        <v>1169.75</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.286000</v>
+        <v>-217.286</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>47386.458919</v>
+        <v>47386.458918999997</v>
       </c>
       <c r="L12" s="1">
         <v>13.162905</v>
       </c>
       <c r="M12" s="1">
-        <v>1197.120000</v>
+        <v>1197.1199999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.583000</v>
+        <v>-151.583</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>47396.982068</v>
+        <v>47396.982067999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.165828</v>
+        <v>13.165827999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.244000</v>
+        <v>-129.244</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>47407.515604</v>
@@ -3111,754 +3527,754 @@
         <v>13.168754</v>
       </c>
       <c r="W12" s="1">
-        <v>1212.690000</v>
+        <v>1212.69</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.124000</v>
+        <v>-108.124</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>47417.982151</v>
+        <v>47417.982150999997</v>
       </c>
       <c r="AA12" s="1">
         <v>13.171662</v>
       </c>
       <c r="AB12" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.249100</v>
+        <v>-91.249099999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>47428.856472</v>
+        <v>47428.856471999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.174682</v>
+        <v>13.174682000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.754200</v>
+        <v>-86.754199999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>47439.325995</v>
+        <v>47439.325994999999</v>
       </c>
       <c r="AK12" s="1">
         <v>13.177591</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM12" s="1">
-        <v>-90.139200</v>
+        <v>-90.139200000000002</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>47450.097116</v>
+        <v>47450.097115999997</v>
       </c>
       <c r="AP12" s="1">
         <v>13.180583</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.920000</v>
+        <v>1239.92</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>47461.146991</v>
+        <v>47461.146991000001</v>
       </c>
       <c r="AU12" s="1">
         <v>13.183652</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.755000</v>
+        <v>-121.755</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>47472.185455</v>
+        <v>47472.185454999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>13.186718</v>
+        <v>13.186718000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.388000</v>
+        <v>-139.38800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>47483.155474</v>
+        <v>47483.155473999999</v>
       </c>
       <c r="BE12" s="1">
         <v>13.189765</v>
       </c>
       <c r="BF12" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-222.283000</v>
+        <v>-222.28299999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>47494.361091</v>
+        <v>47494.361090999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.192878</v>
       </c>
       <c r="BK12" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-360.529000</v>
+        <v>-360.529</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>47504.986885</v>
+        <v>47504.986884999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>13.195830</v>
+        <v>13.195830000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-586.047000</v>
+        <v>-586.04700000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>47515.904366</v>
+        <v>47515.904366000002</v>
       </c>
       <c r="BT12" s="1">
         <v>13.198862</v>
       </c>
       <c r="BU12" s="1">
-        <v>1616.290000</v>
+        <v>1616.29</v>
       </c>
       <c r="BV12" s="1">
-        <v>-840.438000</v>
+        <v>-840.43799999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>47526.659575</v>
+        <v>47526.659574999998</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.201850</v>
+        <v>13.20185</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1770.230000</v>
+        <v>1770.23</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>47538.610216</v>
+        <v>47538.610216000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.205170</v>
+        <v>13.205170000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.540000</v>
+        <v>2194.54</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1792.770000</v>
+        <v>-1792.77</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>47366.029723</v>
       </c>
       <c r="B13" s="1">
-        <v>13.157230</v>
+        <v>13.15723</v>
       </c>
       <c r="C13" s="1">
-        <v>1147.950000</v>
+        <v>1147.95</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.653000</v>
+        <v>-258.65300000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>47376.100003</v>
       </c>
       <c r="G13" s="1">
-        <v>13.160028</v>
+        <v>13.160028000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1168.850000</v>
+        <v>1168.8499999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.467000</v>
+        <v>-218.46700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>47386.810080</v>
+        <v>47386.810080000003</v>
       </c>
       <c r="L13" s="1">
         <v>13.163003</v>
       </c>
       <c r="M13" s="1">
-        <v>1197.030000</v>
+        <v>1197.03</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.359000</v>
+        <v>-151.35900000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>47397.331741</v>
+        <v>47397.331741000002</v>
       </c>
       <c r="Q13" s="1">
         <v>13.165925</v>
       </c>
       <c r="R13" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.266000</v>
+        <v>-129.26599999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>47408.203525</v>
+        <v>47408.203524999997</v>
       </c>
       <c r="V13" s="1">
-        <v>13.168945</v>
+        <v>13.168945000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1212.370000</v>
+        <v>1212.3699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.485000</v>
+        <v>-108.485</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>47418.680059</v>
+        <v>47418.680058999998</v>
       </c>
       <c r="AA13" s="1">
         <v>13.171856</v>
       </c>
       <c r="AB13" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-91.204000</v>
+        <v>-91.203999999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>47429.195745</v>
+        <v>47429.195744999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.174777</v>
+        <v>13.174777000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>1224.930000</v>
+        <v>1224.93</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.787200</v>
+        <v>-86.787199999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>47439.672204</v>
+        <v>47439.672204000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.177687</v>
+        <v>13.177687000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.990000</v>
+        <v>1231.99</v>
       </c>
       <c r="AM13" s="1">
-        <v>-90.145700</v>
+        <v>-90.145700000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>47450.457244</v>
+        <v>47450.457243999997</v>
       </c>
       <c r="AP13" s="1">
         <v>13.180683</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.183000</v>
+        <v>-102.18300000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>47461.835437</v>
+        <v>47461.835437000002</v>
       </c>
       <c r="AU13" s="1">
         <v>13.183843</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.880000</v>
+        <v>1249.8800000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.715000</v>
+        <v>-121.715</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>47472.836702</v>
+        <v>47472.836702000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.186899</v>
       </c>
       <c r="BA13" s="1">
-        <v>1258.350000</v>
+        <v>1258.3499999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.387000</v>
+        <v>-139.387</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>47483.562688</v>
+        <v>47483.562687999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>13.189879</v>
+        <v>13.189878999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-222.291000</v>
+        <v>-222.291</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>47494.737059</v>
+        <v>47494.737058999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>13.192983</v>
       </c>
       <c r="BK13" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL13" s="1">
-        <v>-360.527000</v>
+        <v>-360.52699999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>47505.403524</v>
+        <v>47505.403524000001</v>
       </c>
       <c r="BO13" s="1">
         <v>13.195945</v>
       </c>
       <c r="BP13" s="1">
-        <v>1483.580000</v>
+        <v>1483.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-586.017000</v>
+        <v>-586.01700000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>47516.317494</v>
+        <v>47516.317494000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.198977</v>
+        <v>13.198976999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1616.460000</v>
+        <v>1616.46</v>
       </c>
       <c r="BV13" s="1">
-        <v>-840.396000</v>
+        <v>-840.39599999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>47527.111432</v>
+        <v>47527.111431999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.201975</v>
+        <v>13.201974999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1770.410000</v>
+        <v>1770.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>47539.460358</v>
+        <v>47539.460357999997</v>
       </c>
       <c r="CD13" s="1">
         <v>13.205406</v>
       </c>
       <c r="CE13" s="1">
-        <v>2194.110000</v>
+        <v>2194.11</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1790.360000</v>
+        <v>-1790.36</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>47366.371436</v>
+        <v>47366.371436000001</v>
       </c>
       <c r="B14" s="1">
         <v>13.157325</v>
       </c>
       <c r="C14" s="1">
-        <v>1147.650000</v>
+        <v>1147.6500000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.878000</v>
+        <v>-258.87799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>47376.663919</v>
+        <v>47376.663918999999</v>
       </c>
       <c r="G14" s="1">
-        <v>13.160184</v>
+        <v>13.160183999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1168.930000</v>
+        <v>1168.93</v>
       </c>
       <c r="I14" s="1">
-        <v>-216.990000</v>
+        <v>-216.99</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>47387.153809</v>
+        <v>47387.153809000003</v>
       </c>
       <c r="L14" s="1">
         <v>13.163098</v>
       </c>
       <c r="M14" s="1">
-        <v>1197.160000</v>
+        <v>1197.1600000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.504000</v>
+        <v>-151.50399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>47398.028099</v>
+        <v>47398.028099000003</v>
       </c>
       <c r="Q14" s="1">
         <v>13.166119</v>
       </c>
       <c r="R14" s="1">
-        <v>1205.020000</v>
+        <v>1205.02</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.265000</v>
+        <v>-129.26499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>47408.547253</v>
+        <v>47408.547252999997</v>
       </c>
       <c r="V14" s="1">
         <v>13.169041</v>
       </c>
       <c r="W14" s="1">
-        <v>1212.480000</v>
+        <v>1212.48</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.449000</v>
+        <v>-108.449</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>47419.028215</v>
+        <v>47419.028214999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.171952</v>
+        <v>13.171951999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1220.190000</v>
+        <v>1220.19</v>
       </c>
       <c r="AC14" s="1">
-        <v>-91.253300</v>
+        <v>-91.253299999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>47429.539964</v>
+        <v>47429.539964000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.174872</v>
+        <v>13.174872000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1224.870000</v>
+        <v>1224.8699999999999</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.615200</v>
+        <v>-86.615200000000002</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>47440.327945</v>
+        <v>47440.327944999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.177869</v>
+        <v>13.177868999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM14" s="1">
-        <v>-90.121800</v>
+        <v>-90.121799999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>47451.125360</v>
+        <v>47451.125359999998</v>
       </c>
       <c r="AP14" s="1">
         <v>13.180868</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.193000</v>
+        <v>-102.193</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>47462.273932</v>
+        <v>47462.273931999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.183965</v>
+        <v>13.183965000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.910000</v>
+        <v>1249.9100000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.737000</v>
+        <v>-121.73699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>47473.259294</v>
+        <v>47473.259294000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.187016</v>
       </c>
       <c r="BA14" s="1">
-        <v>1258.340000</v>
+        <v>1258.3399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.390000</v>
+        <v>-139.38999999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>47483.956512</v>
+        <v>47483.956511999997</v>
       </c>
       <c r="BE14" s="1">
         <v>13.189988</v>
       </c>
       <c r="BF14" s="1">
-        <v>1298.600000</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-222.306000</v>
+        <v>-222.30600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>47495.111538</v>
+        <v>47495.111537999997</v>
       </c>
       <c r="BJ14" s="1">
         <v>13.193087</v>
       </c>
       <c r="BK14" s="1">
-        <v>1368.550000</v>
+        <v>1368.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-360.548000</v>
+        <v>-360.548</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>47505.808754</v>
+        <v>47505.808753999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.196058</v>
+        <v>13.196058000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1483.620000</v>
+        <v>1483.62</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-586.046000</v>
+        <v>-586.04600000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>47516.752484</v>
+        <v>47516.752483999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.199098</v>
+        <v>13.199097999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1616.610000</v>
+        <v>1616.61</v>
       </c>
       <c r="BV14" s="1">
-        <v>-840.283000</v>
+        <v>-840.28300000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>47527.560807</v>
+        <v>47527.560807000002</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.202100</v>
+        <v>13.2021</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.210000</v>
+        <v>1770.21</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1118.090000</v>
+        <v>-1118.0899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>47540.130919</v>
+        <v>47540.130919000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>13.205592</v>
+        <v>13.205591999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>2193.490000</v>
+        <v>2193.4899999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1792.240000</v>
+        <v>-1792.24</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>47366.710999</v>
+        <v>47366.710999000003</v>
       </c>
       <c r="B15" s="1">
-        <v>13.157420</v>
+        <v>13.15742</v>
       </c>
       <c r="C15" s="1">
-        <v>1147.980000</v>
+        <v>1147.98</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.681000</v>
+        <v>-258.68099999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>47377.361326</v>
+        <v>47377.361325999998</v>
       </c>
       <c r="G15" s="1">
         <v>13.160378</v>
       </c>
       <c r="H15" s="1">
-        <v>1169.510000</v>
+        <v>1169.51</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.592000</v>
+        <v>-217.59200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>47387.847215</v>
+        <v>47387.847215000002</v>
       </c>
       <c r="L15" s="1">
-        <v>13.163291</v>
+        <v>13.163290999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1197.150000</v>
+        <v>1197.1500000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.592000</v>
+        <v>-151.59200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>47398.379793</v>
@@ -3867,330 +4283,330 @@
         <v>13.166217</v>
       </c>
       <c r="R15" s="1">
-        <v>1205.040000</v>
+        <v>1205.04</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.186000</v>
+        <v>-129.18600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>47408.891475</v>
+        <v>47408.891474999997</v>
       </c>
       <c r="V15" s="1">
-        <v>13.169137</v>
+        <v>13.169136999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>1212.490000</v>
+        <v>1212.49</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.476000</v>
+        <v>-108.476</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>47419.379877</v>
+        <v>47419.379876999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>13.172050</v>
+        <v>13.17205</v>
       </c>
       <c r="AB15" s="1">
-        <v>1220.070000</v>
+        <v>1220.07</v>
       </c>
       <c r="AC15" s="1">
-        <v>-91.279300</v>
+        <v>-91.279300000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>47430.202583</v>
+        <v>47430.202582999998</v>
       </c>
       <c r="AF15" s="1">
         <v>13.175056</v>
       </c>
       <c r="AG15" s="1">
-        <v>1224.760000</v>
+        <v>1224.76</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.758600</v>
+        <v>-86.758600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>47440.719258</v>
+        <v>47440.719257999997</v>
       </c>
       <c r="AK15" s="1">
         <v>13.177978</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM15" s="1">
-        <v>-90.114900</v>
+        <v>-90.114900000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>47451.538026</v>
+        <v>47451.538026000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.180983</v>
+        <v>13.180982999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.196000</v>
+        <v>-102.196</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>47462.640444</v>
+        <v>47462.640443999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.184067</v>
+        <v>13.184067000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.880000</v>
+        <v>1249.8800000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.711000</v>
+        <v>-121.711</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>47473.642730</v>
+        <v>47473.64273</v>
       </c>
       <c r="AZ15" s="1">
         <v>13.187123</v>
       </c>
       <c r="BA15" s="1">
-        <v>1258.340000</v>
+        <v>1258.3399999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.392000</v>
+        <v>-139.392</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>47484.316608</v>
+        <v>47484.316608000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>13.190088</v>
+        <v>13.190087999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1298.560000</v>
+        <v>1298.56</v>
       </c>
       <c r="BG15" s="1">
-        <v>-222.293000</v>
+        <v>-222.29300000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>47495.532828</v>
+        <v>47495.532828000003</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.193204</v>
       </c>
       <c r="BK15" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL15" s="1">
-        <v>-360.569000</v>
+        <v>-360.56900000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>47506.618262</v>
+        <v>47506.618262000004</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.196283</v>
+        <v>13.196282999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1483.520000</v>
+        <v>1483.52</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-586.021000</v>
+        <v>-586.02099999999996</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>47517.174612</v>
+        <v>47517.174612000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.199215</v>
+        <v>13.199215000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.730000</v>
+        <v>1616.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-840.351000</v>
+        <v>-840.351</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>47527.980949</v>
+        <v>47527.980948999997</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.202217</v>
+        <v>13.202216999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.310000</v>
+        <v>1770.31</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1118.250000</v>
+        <v>-1118.25</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>47540.663622</v>
       </c>
       <c r="CD15" s="1">
-        <v>13.205740</v>
+        <v>13.20574</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.110000</v>
+        <v>2194.11</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1790.630000</v>
+        <v>-1790.63</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>47367.397161</v>
+        <v>47367.397161000001</v>
       </c>
       <c r="B16" s="1">
-        <v>13.157610</v>
+        <v>13.15761</v>
       </c>
       <c r="C16" s="1">
-        <v>1147.640000</v>
+        <v>1147.6400000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.566000</v>
+        <v>-258.56599999999997</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>47377.705516</v>
+        <v>47377.705516000002</v>
       </c>
       <c r="G16" s="1">
-        <v>13.160474</v>
+        <v>13.160474000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1170.140000</v>
+        <v>1170.1400000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.641000</v>
+        <v>-217.64099999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>47388.194414</v>
+        <v>47388.194413999998</v>
       </c>
       <c r="L16" s="1">
         <v>13.163387</v>
       </c>
       <c r="M16" s="1">
-        <v>1197.190000</v>
+        <v>1197.19</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.459000</v>
+        <v>-151.459</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>47398.725473</v>
+        <v>47398.725472999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>13.166313</v>
+        <v>13.166313000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1205.090000</v>
+        <v>1205.0899999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.233000</v>
+        <v>-129.233</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>47409.543715</v>
       </c>
       <c r="V16" s="1">
-        <v>13.169318</v>
+        <v>13.169318000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.187000</v>
+        <v>-108.187</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>47420.034596</v>
+        <v>47420.034595999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.172232</v>
+        <v>13.172231999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>1220.020000</v>
+        <v>1220.02</v>
       </c>
       <c r="AC16" s="1">
-        <v>-91.261400</v>
+        <v>-91.261399999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>47430.569623</v>
+        <v>47430.569623000003</v>
       </c>
       <c r="AF16" s="1">
         <v>13.175158</v>
       </c>
       <c r="AG16" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.741400</v>
+        <v>-86.741399999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>47441.067450</v>
+        <v>47441.067450000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.178074</v>
+        <v>13.178074000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.980000</v>
+        <v>1231.98</v>
       </c>
       <c r="AM16" s="1">
-        <v>-90.091000</v>
+        <v>-90.090999999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>47451.920907</v>
@@ -4199,315 +4615,315 @@
         <v>13.181089</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.920000</v>
+        <v>1239.92</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.188000</v>
+        <v>-102.188</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>47463.004537</v>
+        <v>47463.004537000001</v>
       </c>
       <c r="AU16" s="1">
         <v>13.184168</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.751000</v>
+        <v>-121.751</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>47474.061852</v>
+        <v>47474.061851999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>13.187239</v>
       </c>
       <c r="BA16" s="1">
-        <v>1258.360000</v>
+        <v>1258.3599999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.417000</v>
+        <v>-139.417</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>47484.739231</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.190205</v>
+        <v>13.190205000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1298.560000</v>
+        <v>1298.56</v>
       </c>
       <c r="BG16" s="1">
-        <v>-222.265000</v>
+        <v>-222.26499999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>47495.882321</v>
+        <v>47495.882320999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.193301</v>
       </c>
       <c r="BK16" s="1">
-        <v>1368.530000</v>
+        <v>1368.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-360.528000</v>
+        <v>-360.52800000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>47507.034866</v>
+        <v>47507.034866000002</v>
       </c>
       <c r="BO16" s="1">
         <v>13.196399</v>
       </c>
       <c r="BP16" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-586.051000</v>
+        <v>-586.05100000000004</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>47517.586756</v>
+        <v>47517.586755999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.199330</v>
+        <v>13.19933</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.940000</v>
+        <v>1616.94</v>
       </c>
       <c r="BV16" s="1">
-        <v>-840.376000</v>
+        <v>-840.37599999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>47528.404005</v>
+        <v>47528.404004999997</v>
       </c>
       <c r="BY16" s="1">
         <v>13.202334</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1770.400000</v>
+        <v>1770.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1118.120000</v>
+        <v>-1118.1199999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>47541.180452</v>
+        <v>47541.180452000001</v>
       </c>
       <c r="CD16" s="1">
         <v>13.205883</v>
       </c>
       <c r="CE16" s="1">
-        <v>2192.320000</v>
+        <v>2192.3200000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1789.930000</v>
+        <v>-1789.93</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>47367.740918</v>
+        <v>47367.740918000003</v>
       </c>
       <c r="B17" s="1">
-        <v>13.157706</v>
+        <v>13.157705999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1147.970000</v>
+        <v>1147.97</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.640000</v>
+        <v>-258.64</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>47378.051229</v>
+        <v>47378.051228999997</v>
       </c>
       <c r="G17" s="1">
-        <v>13.160570</v>
+        <v>13.16057</v>
       </c>
       <c r="H17" s="1">
-        <v>1169.610000</v>
+        <v>1169.6099999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.933000</v>
+        <v>-217.93299999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>47388.536686</v>
+        <v>47388.536685999999</v>
       </c>
       <c r="L17" s="1">
         <v>13.163482</v>
       </c>
       <c r="M17" s="1">
-        <v>1197.270000</v>
+        <v>1197.27</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.346000</v>
+        <v>-151.346</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>47399.381681</v>
+        <v>47399.381680999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>13.166495</v>
+        <v>13.166494999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1205.120000</v>
+        <v>1205.1199999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.270000</v>
+        <v>-129.27000000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>47409.928609</v>
+        <v>47409.928609000002</v>
       </c>
       <c r="V17" s="1">
         <v>13.169425</v>
       </c>
       <c r="W17" s="1">
-        <v>1212.520000</v>
+        <v>1212.52</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.520000</v>
+        <v>-108.52</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>47420.421971</v>
+        <v>47420.421971000003</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.172339</v>
+        <v>13.172338999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-91.182400</v>
+        <v>-91.182400000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>47430.914875</v>
+        <v>47430.914875000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.175254</v>
+        <v>13.175254000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1224.830000</v>
+        <v>1224.83</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.706900</v>
+        <v>-86.706900000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>47441.413655</v>
+        <v>47441.413654999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>13.178170</v>
+        <v>13.17817</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.950000</v>
+        <v>1231.95</v>
       </c>
       <c r="AM17" s="1">
-        <v>-90.131700</v>
+        <v>-90.131699999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>47452.278027</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.181188</v>
+        <v>13.181188000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.171000</v>
+        <v>-102.17100000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>47463.420155</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.184283</v>
+        <v>13.184283000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.920000</v>
+        <v>1249.92</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.714000</v>
+        <v>-121.714</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>47474.362894</v>
+        <v>47474.362893999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.187323</v>
+        <v>13.187322999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1258.380000</v>
+        <v>1258.3800000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.394000</v>
+        <v>-139.39400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>47485.038812</v>
+        <v>47485.038811999999</v>
       </c>
       <c r="BE17" s="1">
         <v>13.190289</v>
       </c>
       <c r="BF17" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG17" s="1">
-        <v>-222.255000</v>
+        <v>-222.255</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>47496.257328</v>
@@ -4516,13 +4932,13 @@
         <v>13.193405</v>
       </c>
       <c r="BK17" s="1">
-        <v>1368.490000</v>
+        <v>1368.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-360.539000</v>
+        <v>-360.53899999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>47507.428193</v>
@@ -4531,135 +4947,135 @@
         <v>13.196508</v>
       </c>
       <c r="BP17" s="1">
-        <v>1483.590000</v>
+        <v>1483.59</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-586.027000</v>
+        <v>-586.02700000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>47518.019268</v>
+        <v>47518.019267999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.199450</v>
+        <v>13.199450000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.950000</v>
+        <v>1616.95</v>
       </c>
       <c r="BV17" s="1">
-        <v>-840.563000</v>
+        <v>-840.56299999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>47528.850900</v>
+        <v>47528.850899999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.202459</v>
+        <v>13.202458999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.340000</v>
+        <v>1770.34</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1118.330000</v>
+        <v>-1118.33</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>47541.694840</v>
+        <v>47541.694839999996</v>
       </c>
       <c r="CD17" s="1">
         <v>13.206026</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.180000</v>
+        <v>2192.1799999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1792.190000</v>
+        <v>-1792.19</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>47368.081145</v>
+        <v>47368.081144999996</v>
       </c>
       <c r="B18" s="1">
-        <v>13.157800</v>
+        <v>13.1578</v>
       </c>
       <c r="C18" s="1">
-        <v>1148.010000</v>
+        <v>1148.01</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.482000</v>
+        <v>-258.48200000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>47378.707963</v>
+        <v>47378.707963000001</v>
       </c>
       <c r="G18" s="1">
         <v>13.160752</v>
       </c>
       <c r="H18" s="1">
-        <v>1168.970000</v>
+        <v>1168.97</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.503000</v>
+        <v>-217.50299999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>47389.224642</v>
+        <v>47389.224642000001</v>
       </c>
       <c r="L18" s="1">
         <v>13.163674</v>
       </c>
       <c r="M18" s="1">
-        <v>1197.180000</v>
+        <v>1197.18</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.544000</v>
+        <v>-151.54400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>47399.770047</v>
+        <v>47399.770046999998</v>
       </c>
       <c r="Q18" s="1">
         <v>13.166603</v>
       </c>
       <c r="R18" s="1">
-        <v>1205.140000</v>
+        <v>1205.1400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.298000</v>
+        <v>-129.298</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>47410.273830</v>
+        <v>47410.273829999998</v>
       </c>
       <c r="V18" s="1">
         <v>13.169521</v>
       </c>
       <c r="W18" s="1">
-        <v>1212.330000</v>
+        <v>1212.33</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.354000</v>
+        <v>-108.354</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>47420.771687</v>
@@ -4668,163 +5084,163 @@
         <v>13.172437</v>
       </c>
       <c r="AB18" s="1">
-        <v>1220.060000</v>
+        <v>1220.06</v>
       </c>
       <c r="AC18" s="1">
-        <v>-91.285600</v>
+        <v>-91.285600000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>47431.257077</v>
+        <v>47431.257077000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.175349</v>
+        <v>13.175349000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1224.810000</v>
+        <v>1224.81</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.613900</v>
+        <v>-86.613900000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>47441.830792</v>
+        <v>47441.830792000001</v>
       </c>
       <c r="AK18" s="1">
         <v>13.178286</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM18" s="1">
-        <v>-90.118300</v>
+        <v>-90.118300000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>47452.706073</v>
+        <v>47452.706073000001</v>
       </c>
       <c r="AP18" s="1">
         <v>13.181307</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.168000</v>
+        <v>-102.16800000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>47463.734124</v>
+        <v>47463.734124000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.184371</v>
+        <v>13.184371000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.910000</v>
+        <v>1249.9100000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.718000</v>
+        <v>-121.718</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>47474.721041</v>
+        <v>47474.721040999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>13.187423</v>
+        <v>13.187423000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1258.340000</v>
+        <v>1258.3399999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.397000</v>
+        <v>-139.39699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>47485.397391</v>
+        <v>47485.397390999999</v>
       </c>
       <c r="BE18" s="1">
         <v>13.190388</v>
       </c>
       <c r="BF18" s="1">
-        <v>1298.600000</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-222.268000</v>
+        <v>-222.268</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>47496.632809</v>
+        <v>47496.632809000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.193509</v>
+        <v>13.193509000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1368.500000</v>
+        <v>1368.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-360.553000</v>
+        <v>-360.553</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>47507.850325</v>
+        <v>47507.850324999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.196625</v>
+        <v>13.196624999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1483.570000</v>
+        <v>1483.57</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-586.071000</v>
+        <v>-586.07100000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>47518.445332</v>
+        <v>47518.445332000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>13.199568</v>
+        <v>13.199567999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.070000</v>
+        <v>1617.07</v>
       </c>
       <c r="BV18" s="1">
-        <v>-840.657000</v>
+        <v>-840.65700000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>47529.282421</v>
+        <v>47529.282421000004</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.202578</v>
+        <v>13.202578000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1770.400000</v>
+        <v>1770.4</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1118.210000</v>
+        <v>-1118.21</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>47542.218083</v>
@@ -4833,90 +5249,90 @@
         <v>13.206172</v>
       </c>
       <c r="CE18" s="1">
-        <v>2194.350000</v>
+        <v>2194.35</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1789.970000</v>
+        <v>-1789.97</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>47368.732392</v>
+        <v>47368.732391999998</v>
       </c>
       <c r="B19" s="1">
-        <v>13.157981</v>
+        <v>13.157980999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1147.930000</v>
+        <v>1147.93</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.978000</v>
+        <v>-258.97800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>47379.086380</v>
+        <v>47379.086380000001</v>
       </c>
       <c r="G19" s="1">
         <v>13.160857</v>
       </c>
       <c r="H19" s="1">
-        <v>1170.000000</v>
+        <v>1170</v>
       </c>
       <c r="I19" s="1">
-        <v>-216.932000</v>
+        <v>-216.93199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>47389.576801</v>
+        <v>47389.576801000003</v>
       </c>
       <c r="L19" s="1">
-        <v>13.163771</v>
+        <v>13.163771000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1197.300000</v>
+        <v>1197.3</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.441000</v>
+        <v>-151.441</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>47400.120719</v>
+        <v>47400.120718999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.166700</v>
+        <v>13.166700000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1205.060000</v>
+        <v>1205.06</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.266000</v>
+        <v>-129.26599999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>47410.619041</v>
+        <v>47410.619040999998</v>
       </c>
       <c r="V19" s="1">
         <v>13.169616</v>
       </c>
       <c r="W19" s="1">
-        <v>1212.470000</v>
+        <v>1212.47</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.360000</v>
+        <v>-108.36</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>47421.118852</v>
@@ -4925,58 +5341,58 @@
         <v>13.172533</v>
       </c>
       <c r="AB19" s="1">
-        <v>1220.050000</v>
+        <v>1220.05</v>
       </c>
       <c r="AC19" s="1">
-        <v>-91.228900</v>
+        <v>-91.228899999999996</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>47431.672726</v>
+        <v>47431.672725999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.175465</v>
+        <v>13.175465000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1224.860000</v>
+        <v>1224.8599999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.706400</v>
+        <v>-86.706400000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>47442.114504</v>
+        <v>47442.114503999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.178365</v>
+        <v>13.178364999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.970000</v>
+        <v>1231.97</v>
       </c>
       <c r="AM19" s="1">
-        <v>-90.147000</v>
+        <v>-90.147000000000006</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>47453.002219</v>
+        <v>47453.002219000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.181390</v>
+        <v>13.18139</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.180000</v>
+        <v>-102.18</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>47464.096201</v>
@@ -4985,165 +5401,165 @@
         <v>13.184471</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.739000</v>
+        <v>-121.739</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>47475.079644</v>
+        <v>47475.079643999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>13.187522</v>
       </c>
       <c r="BA19" s="1">
-        <v>1258.360000</v>
+        <v>1258.3599999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.419000</v>
+        <v>-139.41900000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>47485.757518</v>
+        <v>47485.757517999999</v>
       </c>
       <c r="BE19" s="1">
         <v>13.190488</v>
       </c>
       <c r="BF19" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG19" s="1">
-        <v>-222.302000</v>
+        <v>-222.30199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>47497.382718</v>
+        <v>47497.382718000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.193717</v>
+        <v>13.193716999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL19" s="1">
-        <v>-360.561000</v>
+        <v>-360.56099999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>47508.246593</v>
+        <v>47508.246593000003</v>
       </c>
       <c r="BO19" s="1">
         <v>13.196735</v>
       </c>
       <c r="BP19" s="1">
-        <v>1483.540000</v>
+        <v>1483.54</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-586.047000</v>
+        <v>-586.04700000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>47518.859025</v>
+        <v>47518.859024999998</v>
       </c>
       <c r="BT19" s="1">
         <v>13.199683</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.140000</v>
+        <v>1617.14</v>
       </c>
       <c r="BV19" s="1">
-        <v>-840.746000</v>
+        <v>-840.74599999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>47529.704516</v>
+        <v>47529.704515999998</v>
       </c>
       <c r="BY19" s="1">
         <v>13.202696</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.160000</v>
+        <v>1770.16</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1118.210000</v>
+        <v>-1118.21</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>47543.067730</v>
+        <v>47543.067730000002</v>
       </c>
       <c r="CD19" s="1">
         <v>13.206408</v>
       </c>
       <c r="CE19" s="1">
-        <v>2193.850000</v>
+        <v>2193.85</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1791.770000</v>
+        <v>-1791.77</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>47369.102904</v>
+        <v>47369.102903999999</v>
       </c>
       <c r="B20" s="1">
-        <v>13.158084</v>
+        <v>13.158084000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1147.910000</v>
+        <v>1147.9100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.809000</v>
+        <v>-258.80900000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>47379.434073</v>
+        <v>47379.434072999997</v>
       </c>
       <c r="G20" s="1">
         <v>13.160954</v>
       </c>
       <c r="H20" s="1">
-        <v>1169.110000</v>
+        <v>1169.1099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-217.013000</v>
+        <v>-217.01300000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>47389.919997</v>
+        <v>47389.919996999997</v>
       </c>
       <c r="L20" s="1">
         <v>13.163867</v>
       </c>
       <c r="M20" s="1">
-        <v>1197.050000</v>
+        <v>1197.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.268000</v>
+        <v>-151.268</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>47400.471887</v>
@@ -5152,103 +5568,103 @@
         <v>13.166798</v>
       </c>
       <c r="R20" s="1">
-        <v>1205.080000</v>
+        <v>1205.08</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.244000</v>
+        <v>-129.244</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>47411.032704</v>
+        <v>47411.032703999997</v>
       </c>
       <c r="V20" s="1">
-        <v>13.169731</v>
+        <v>13.169731000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1212.520000</v>
+        <v>1212.52</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.411000</v>
+        <v>-108.411</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>47421.549912</v>
+        <v>47421.549912000002</v>
       </c>
       <c r="AA20" s="1">
         <v>13.172653</v>
       </c>
       <c r="AB20" s="1">
-        <v>1220.030000</v>
+        <v>1220.03</v>
       </c>
       <c r="AC20" s="1">
-        <v>-91.274600</v>
+        <v>-91.274600000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>47431.969333</v>
+        <v>47431.969333000001</v>
       </c>
       <c r="AF20" s="1">
         <v>13.175547</v>
       </c>
       <c r="AG20" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.690700</v>
+        <v>-86.690700000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>47442.461704</v>
+        <v>47442.461704000001</v>
       </c>
       <c r="AK20" s="1">
         <v>13.178462</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.950000</v>
+        <v>1231.95</v>
       </c>
       <c r="AM20" s="1">
-        <v>-90.111000</v>
+        <v>-90.111000000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>47453.360329</v>
+        <v>47453.360329000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.181489</v>
+        <v>13.181488999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.890000</v>
+        <v>1239.8900000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.173000</v>
+        <v>-102.173</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>47464.460762</v>
+        <v>47464.460762000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.184572</v>
+        <v>13.184571999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.721000</v>
+        <v>-121.721</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>47475.794877</v>
@@ -5257,195 +5673,195 @@
         <v>13.187721</v>
       </c>
       <c r="BA20" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.377000</v>
+        <v>-139.37700000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>47486.484660</v>
+        <v>47486.484660000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>13.190690</v>
+        <v>13.19069</v>
       </c>
       <c r="BF20" s="1">
-        <v>1298.570000</v>
+        <v>1298.57</v>
       </c>
       <c r="BG20" s="1">
-        <v>-222.289000</v>
+        <v>-222.28899999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>47497.758685</v>
+        <v>47497.758685000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.193822</v>
+        <v>13.193822000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL20" s="1">
-        <v>-360.516000</v>
+        <v>-360.51600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>47508.669712</v>
+        <v>47508.669712000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.196853</v>
+        <v>13.196853000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-586.032000</v>
+        <v>-586.03200000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>47519.290049</v>
+        <v>47519.290049000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.199803</v>
+        <v>13.199802999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.130000</v>
+        <v>1617.13</v>
       </c>
       <c r="BV20" s="1">
-        <v>-840.926000</v>
+        <v>-840.92600000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>47530.434626</v>
+        <v>47530.434626000002</v>
       </c>
       <c r="BY20" s="1">
         <v>13.202899</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1770.380000</v>
+        <v>1770.38</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1118.200000</v>
+        <v>-1118.2</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>47543.294414</v>
+        <v>47543.294414000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.206471</v>
+        <v>13.206471000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2193.040000</v>
+        <v>2193.04</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1792.530000</v>
+        <v>-1792.53</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>47369.450135</v>
+        <v>47369.450134999999</v>
       </c>
       <c r="B21" s="1">
-        <v>13.158181</v>
+        <v>13.158181000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1147.790000</v>
+        <v>1147.79</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.714000</v>
+        <v>-258.714</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>47379.779291</v>
+        <v>47379.779290999999</v>
       </c>
       <c r="G21" s="1">
-        <v>13.161050</v>
+        <v>13.161049999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1169.640000</v>
+        <v>1169.6400000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-217.334000</v>
+        <v>-217.334</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>47390.341099</v>
+        <v>47390.341098999997</v>
       </c>
       <c r="L21" s="1">
-        <v>13.163984</v>
+        <v>13.163983999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1197.280000</v>
+        <v>1197.28</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.274000</v>
+        <v>-151.274</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>47400.897489</v>
+        <v>47400.897489000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.166916</v>
+        <v>13.166916000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>1205.110000</v>
+        <v>1205.1099999999999</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.234000</v>
+        <v>-129.23400000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>47411.315425</v>
+        <v>47411.315425000001</v>
       </c>
       <c r="V21" s="1">
-        <v>13.169810</v>
+        <v>13.16981</v>
       </c>
       <c r="W21" s="1">
-        <v>1212.440000</v>
+        <v>1212.44</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.441000</v>
+        <v>-108.441</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>47421.845527</v>
+        <v>47421.845526999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.172735</v>
+        <v>13.172734999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1220.230000</v>
+        <v>1220.23</v>
       </c>
       <c r="AC21" s="1">
-        <v>-91.197400</v>
+        <v>-91.197400000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>47432.312069</v>
@@ -5454,799 +5870,799 @@
         <v>13.175642</v>
       </c>
       <c r="AG21" s="1">
-        <v>1225.040000</v>
+        <v>1225.04</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.924000</v>
+        <v>-86.924000000000007</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>47442.811910</v>
+        <v>47442.811909999997</v>
       </c>
       <c r="AK21" s="1">
         <v>13.178559</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.950000</v>
+        <v>1231.95</v>
       </c>
       <c r="AM21" s="1">
-        <v>-90.124800</v>
+        <v>-90.124799999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>47453.720888</v>
+        <v>47453.720888000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>13.181589</v>
+        <v>13.181589000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.203000</v>
+        <v>-102.203</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>47465.189415</v>
+        <v>47465.189415000001</v>
       </c>
       <c r="AU21" s="1">
         <v>13.184775</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.702000</v>
+        <v>-121.702</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>47476.156923</v>
+        <v>47476.156923000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.187821</v>
       </c>
       <c r="BA21" s="1">
-        <v>1258.390000</v>
+        <v>1258.3900000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.421000</v>
+        <v>-139.42099999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>47486.848189</v>
+        <v>47486.848188999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>13.190791</v>
+        <v>13.190791000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1298.600000</v>
+        <v>1298.5999999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-222.281000</v>
+        <v>-222.28100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>47498.138162</v>
+        <v>47498.138162000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.193927</v>
       </c>
       <c r="BK21" s="1">
-        <v>1368.500000</v>
+        <v>1368.5</v>
       </c>
       <c r="BL21" s="1">
-        <v>-360.571000</v>
+        <v>-360.57100000000003</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>47509.378960</v>
+        <v>47509.378960000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.197050</v>
+        <v>13.197050000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-585.997000</v>
+        <v>-585.99699999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>47520.016657</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.200005</v>
+        <v>13.200005000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.020000</v>
+        <v>1617.02</v>
       </c>
       <c r="BV21" s="1">
-        <v>-841.031000</v>
+        <v>-841.03099999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>47530.552178</v>
+        <v>47530.552177999998</v>
       </c>
       <c r="BY21" s="1">
         <v>13.202931</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.480000</v>
+        <v>1770.48</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1118.080000</v>
+        <v>-1118.08</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>47543.813714</v>
+        <v>47543.813714000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>13.206615</v>
+        <v>13.206614999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>2194.310000</v>
+        <v>2194.31</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1790.900000</v>
+        <v>-1790.9</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>47369.794096</v>
+        <v>47369.794095999998</v>
       </c>
       <c r="B22" s="1">
-        <v>13.158276</v>
+        <v>13.158276000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1147.880000</v>
+        <v>1147.8800000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.782000</v>
+        <v>-258.78199999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>47380.205849</v>
+        <v>47380.205848999998</v>
       </c>
       <c r="G22" s="1">
         <v>13.161168</v>
       </c>
       <c r="H22" s="1">
-        <v>1169.610000</v>
+        <v>1169.6099999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.396000</v>
+        <v>-217.39599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>47390.611419</v>
+        <v>47390.611419000001</v>
       </c>
       <c r="L22" s="1">
         <v>13.164059</v>
       </c>
       <c r="M22" s="1">
-        <v>1197.100000</v>
+        <v>1197.0999999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.198000</v>
+        <v>-151.19800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>47401.179678</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.166994</v>
+        <v>13.166994000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1205.090000</v>
+        <v>1205.0899999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.225000</v>
+        <v>-129.22499999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>47411.663156</v>
+        <v>47411.663156000002</v>
       </c>
       <c r="V22" s="1">
-        <v>13.169906</v>
+        <v>13.169905999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1212.620000</v>
+        <v>1212.6199999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.225000</v>
+        <v>-108.22499999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>47422.236834</v>
+        <v>47422.236834000003</v>
       </c>
       <c r="AA22" s="1">
         <v>13.172844</v>
       </c>
       <c r="AB22" s="1">
-        <v>1220.110000</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-91.232900</v>
+        <v>-91.232900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>47432.656291</v>
+        <v>47432.656290999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.175738</v>
+        <v>13.175738000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1224.970000</v>
+        <v>1224.97</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.629200</v>
+        <v>-86.629199999999997</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>47443.506278</v>
+        <v>47443.506278000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.178752</v>
+        <v>13.178751999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.940000</v>
+        <v>1231.94</v>
       </c>
       <c r="AM22" s="1">
-        <v>-90.119500</v>
+        <v>-90.119500000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>47454.442598</v>
+        <v>47454.442598000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>13.181790</v>
+        <v>13.181789999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>47465.579737</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.184883</v>
+        <v>13.184882999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.860000</v>
+        <v>1249.8599999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.719000</v>
+        <v>-121.71899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>47476.515034</v>
+        <v>47476.515033999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.187921</v>
+        <v>13.187920999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.432000</v>
+        <v>-139.43199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>47487.206331</v>
+        <v>47487.206331000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>13.190891</v>
+        <v>13.190891000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-222.256000</v>
+        <v>-222.256</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>47498.828061</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.194119</v>
+        <v>13.194119000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1368.520000</v>
+        <v>1368.52</v>
       </c>
       <c r="BL22" s="1">
-        <v>-360.563000</v>
+        <v>-360.56299999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>47509.487582</v>
+        <v>47509.487582000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.197080</v>
+        <v>13.19708</v>
       </c>
       <c r="BP22" s="1">
-        <v>1483.530000</v>
+        <v>1483.53</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-586.060000</v>
+        <v>-586.05999999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>47520.162977</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.200045</v>
+        <v>13.200044999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.040000</v>
+        <v>1617.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-841.205000</v>
+        <v>-841.20500000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>47530.997587</v>
+        <v>47530.997586999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.203055</v>
+        <v>13.203055000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.270000</v>
+        <v>1770.27</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1118.100000</v>
+        <v>-1118.0999999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>47544.332033</v>
+        <v>47544.332032999999</v>
       </c>
       <c r="CD22" s="1">
         <v>13.206759</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.510000</v>
+        <v>2192.5100000000002</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1789.900000</v>
+        <v>-1789.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>47370.220390</v>
+        <v>47370.220390000002</v>
       </c>
       <c r="B23" s="1">
-        <v>13.158395</v>
+        <v>13.158395000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1148.160000</v>
+        <v>1148.1600000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.780000</v>
+        <v>-258.77999999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>47380.474680</v>
+        <v>47380.474679999999</v>
       </c>
       <c r="G23" s="1">
-        <v>13.161243</v>
+        <v>13.161243000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1169.690000</v>
+        <v>1169.69</v>
       </c>
       <c r="I23" s="1">
-        <v>-217.973000</v>
+        <v>-217.97300000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>47390.955676</v>
+        <v>47390.955675999998</v>
       </c>
       <c r="L23" s="1">
         <v>13.164154</v>
       </c>
       <c r="M23" s="1">
-        <v>1197.200000</v>
+        <v>1197.2</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.288000</v>
+        <v>-151.28800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>47401.528365</v>
+        <v>47401.528364999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.167091</v>
+        <v>13.167090999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>1205.170000</v>
+        <v>1205.17</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.212000</v>
+        <v>-129.21199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>47412.005855</v>
+        <v>47412.005855000003</v>
       </c>
       <c r="V23" s="1">
         <v>13.170002</v>
       </c>
       <c r="W23" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.322000</v>
+        <v>-108.322</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>47422.891057</v>
+        <v>47422.891057000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.173025</v>
+        <v>13.173025000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1220.120000</v>
+        <v>1220.1199999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-91.291400</v>
+        <v>-91.291399999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>47433.343251</v>
+        <v>47433.343250999998</v>
       </c>
       <c r="AF23" s="1">
         <v>13.175929</v>
       </c>
       <c r="AG23" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.674400</v>
+        <v>-86.674400000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>47443.855988</v>
+        <v>47443.855988000003</v>
       </c>
       <c r="AK23" s="1">
         <v>13.178849</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM23" s="1">
-        <v>-90.092600</v>
+        <v>-90.092600000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>47454.803656</v>
+        <v>47454.803655999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.181890</v>
+        <v>13.181889999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.900000</v>
+        <v>1239.9000000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.210000</v>
+        <v>-102.21</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>47465.945287</v>
+        <v>47465.945287000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.184985</v>
+        <v>13.184984999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.910000</v>
+        <v>1249.9100000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.746000</v>
+        <v>-121.746</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>47477.180201</v>
+        <v>47477.180201000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.188106</v>
+        <v>13.188105999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1258.380000</v>
+        <v>1258.3800000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.405000</v>
+        <v>-139.405</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>47487.871932</v>
+        <v>47487.871932000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>13.191076</v>
+        <v>13.191076000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-222.279000</v>
+        <v>-222.279</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>47499.261598</v>
+        <v>47499.261597999997</v>
       </c>
       <c r="BJ23" s="1">
         <v>13.194239</v>
       </c>
       <c r="BK23" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL23" s="1">
-        <v>-360.534000</v>
+        <v>-360.53399999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>47509.908226</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.197197</v>
+        <v>13.197196999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1483.530000</v>
+        <v>1483.53</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-586.057000</v>
+        <v>-586.05700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>47520.573700</v>
+        <v>47520.573700000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.200159</v>
+        <v>13.200158999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1616.930000</v>
+        <v>1616.93</v>
       </c>
       <c r="BV23" s="1">
-        <v>-841.280000</v>
+        <v>-841.28</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>47531.431125</v>
+        <v>47531.431125000003</v>
       </c>
       <c r="BY23" s="1">
         <v>13.203175</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.280000</v>
+        <v>1770.28</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1118.130000</v>
+        <v>-1118.1300000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>47544.848863</v>
+        <v>47544.848862999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.206902</v>
+        <v>13.206901999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2192.010000</v>
+        <v>2192.0100000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1791.480000</v>
+        <v>-1791.48</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>47370.493191</v>
+        <v>47370.493191000001</v>
       </c>
       <c r="B24" s="1">
-        <v>13.158470</v>
+        <v>13.158469999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1147.830000</v>
+        <v>1147.83</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.790000</v>
+        <v>-258.79000000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>47380.821880</v>
+        <v>47380.821880000003</v>
       </c>
       <c r="G24" s="1">
         <v>13.161339</v>
       </c>
       <c r="H24" s="1">
-        <v>1170.230000</v>
+        <v>1170.23</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.861000</v>
+        <v>-217.86099999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>47391.303339</v>
+        <v>47391.303338999998</v>
       </c>
       <c r="L24" s="1">
         <v>13.164251</v>
       </c>
       <c r="M24" s="1">
-        <v>1197.100000</v>
+        <v>1197.0999999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.644000</v>
+        <v>-151.64400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>47401.876556</v>
+        <v>47401.876556000003</v>
       </c>
       <c r="Q24" s="1">
-        <v>13.167188</v>
+        <v>13.167187999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.267000</v>
+        <v>-129.267</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>47412.691822</v>
+        <v>47412.691822000001</v>
       </c>
       <c r="V24" s="1">
         <v>13.170192</v>
       </c>
       <c r="W24" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.590000</v>
+        <v>-108.59</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>47423.256640</v>
+        <v>47423.25664</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.173127</v>
+        <v>13.173126999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1220.120000</v>
+        <v>1220.1199999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-91.325300</v>
+        <v>-91.325299999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>47433.686483</v>
+        <v>47433.686482999998</v>
       </c>
       <c r="AF24" s="1">
         <v>13.176024</v>
       </c>
       <c r="AG24" s="1">
-        <v>1224.780000</v>
+        <v>1224.78</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.754000</v>
+        <v>-86.754000000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>47444.205636</v>
+        <v>47444.205635999999</v>
       </c>
       <c r="AK24" s="1">
         <v>13.178946</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM24" s="1">
-        <v>-90.118800</v>
+        <v>-90.118799999999993</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>47455.159818</v>
@@ -6255,13 +6671,13 @@
         <v>13.181989</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.880000</v>
+        <v>1239.8800000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>47466.617865</v>
@@ -6270,180 +6686,180 @@
         <v>13.185172</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.900000</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.734000</v>
+        <v>-121.73399999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>47477.591384</v>
+        <v>47477.591383999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.188220</v>
+        <v>13.188219999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1258.380000</v>
+        <v>1258.3800000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.388000</v>
+        <v>-139.38800000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>47488.317031</v>
+        <v>47488.317030999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.191199</v>
+        <v>13.191198999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1298.580000</v>
+        <v>1298.58</v>
       </c>
       <c r="BG24" s="1">
-        <v>-222.280000</v>
+        <v>-222.28</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>47499.637530</v>
+        <v>47499.63753</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.194344</v>
+        <v>13.194343999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL24" s="1">
-        <v>-360.540000</v>
+        <v>-360.54</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>47510.304493</v>
+        <v>47510.304493000003</v>
       </c>
       <c r="BO24" s="1">
         <v>13.197307</v>
       </c>
       <c r="BP24" s="1">
-        <v>1483.600000</v>
+        <v>1483.6</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-586.086000</v>
+        <v>-586.08600000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>47521.002238</v>
+        <v>47521.002238000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.200278</v>
+        <v>13.200278000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1616.740000</v>
+        <v>1616.74</v>
       </c>
       <c r="BV24" s="1">
-        <v>-841.334000</v>
+        <v>-841.33399999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>47531.851232</v>
+        <v>47531.851232000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.203292</v>
+        <v>13.203291999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.120000</v>
+        <v>1770.12</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1118.190000</v>
+        <v>-1118.19</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>47545.366222</v>
+        <v>47545.366221999997</v>
       </c>
       <c r="CD24" s="1">
         <v>13.207046</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.590000</v>
+        <v>2191.59</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1791.230000</v>
+        <v>-1791.23</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>47370.833446</v>
+        <v>47370.833445999997</v>
       </c>
       <c r="B25" s="1">
-        <v>13.158565</v>
+        <v>13.158564999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1148.070000</v>
+        <v>1148.07</v>
       </c>
       <c r="D25" s="1">
-        <v>-259.006000</v>
+        <v>-259.00599999999997</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>47381.165607</v>
+        <v>47381.165607000003</v>
       </c>
       <c r="G25" s="1">
-        <v>13.161435</v>
+        <v>13.161435000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1169.530000</v>
+        <v>1169.53</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.527000</v>
+        <v>-217.52699999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>47391.995755</v>
+        <v>47391.995755000004</v>
       </c>
       <c r="L25" s="1">
         <v>13.164443</v>
       </c>
       <c r="M25" s="1">
-        <v>1197.050000</v>
+        <v>1197.05</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.245000</v>
+        <v>-151.245</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>47402.571484</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.167381</v>
+        <v>13.167381000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1205.060000</v>
+        <v>1205.06</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.270000</v>
+        <v>-129.27000000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>47413.034559</v>
@@ -6452,58 +6868,58 @@
         <v>13.170287</v>
       </c>
       <c r="W25" s="1">
-        <v>1212.370000</v>
+        <v>1212.3699999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.437000</v>
+        <v>-108.437</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>47423.604339</v>
+        <v>47423.604338999998</v>
       </c>
       <c r="AA25" s="1">
         <v>13.173223</v>
       </c>
       <c r="AB25" s="1">
-        <v>1220.100000</v>
+        <v>1220.0999999999999</v>
       </c>
       <c r="AC25" s="1">
-        <v>-91.284800</v>
+        <v>-91.284800000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>47434.031233</v>
+        <v>47434.031233000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.176120</v>
+        <v>13.176119999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1224.890000</v>
+        <v>1224.8900000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.736000</v>
+        <v>-86.736000000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>47444.864819</v>
+        <v>47444.864819000002</v>
       </c>
       <c r="AK25" s="1">
         <v>13.179129</v>
       </c>
       <c r="AL25" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM25" s="1">
-        <v>-90.124800</v>
+        <v>-90.124799999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>47455.909236</v>
@@ -6512,392 +6928,393 @@
         <v>13.182197</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.910000</v>
+        <v>1239.9100000000001</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.211000</v>
+        <v>-102.211</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>47467.070710</v>
+        <v>47467.07071</v>
       </c>
       <c r="AU25" s="1">
         <v>13.185297</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.696000</v>
+        <v>-121.696</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>47477.975287</v>
+        <v>47477.975287000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.188326</v>
       </c>
       <c r="BA25" s="1">
-        <v>1258.330000</v>
+        <v>1258.33</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.427000</v>
+        <v>-139.42699999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>47488.675487</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.191299</v>
+        <v>13.191299000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1298.570000</v>
+        <v>1298.57</v>
       </c>
       <c r="BG25" s="1">
-        <v>-222.275000</v>
+        <v>-222.27500000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>47500.013994</v>
+        <v>47500.013994000001</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.194448</v>
       </c>
       <c r="BK25" s="1">
-        <v>1368.510000</v>
+        <v>1368.51</v>
       </c>
       <c r="BL25" s="1">
-        <v>-360.531000</v>
+        <v>-360.53100000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>47510.732044</v>
+        <v>47510.732043999997</v>
       </c>
       <c r="BO25" s="1">
         <v>13.197426</v>
       </c>
       <c r="BP25" s="1">
-        <v>1483.550000</v>
+        <v>1483.55</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-586.033000</v>
+        <v>-586.03300000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>47521.421860</v>
+        <v>47521.421860000002</v>
       </c>
       <c r="BT25" s="1">
         <v>13.200395</v>
       </c>
       <c r="BU25" s="1">
-        <v>1616.590000</v>
+        <v>1616.59</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.260000</v>
+        <v>-841.26</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>47532.273327</v>
+        <v>47532.273327000003</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.203409</v>
+        <v>13.203409000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1770.320000</v>
+        <v>1770.32</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1118.160000</v>
+        <v>-1118.1600000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>47545.919237</v>
+        <v>47545.919237000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>13.207200</v>
+        <v>13.2072</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.460000</v>
+        <v>2192.46</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1789.800000</v>
+        <v>-1789.8</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>47371.176182</v>
+        <v>47371.176182000003</v>
       </c>
       <c r="B26" s="1">
-        <v>13.158660</v>
+        <v>13.158659999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1147.990000</v>
+        <v>1147.99</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.550000</v>
+        <v>-258.55</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>47381.854054</v>
+        <v>47381.854054000003</v>
       </c>
       <c r="G26" s="1">
         <v>13.161626</v>
       </c>
       <c r="H26" s="1">
-        <v>1169.670000</v>
+        <v>1169.67</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.356000</v>
+        <v>-217.35599999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>47392.340500</v>
+        <v>47392.340499999998</v>
       </c>
       <c r="L26" s="1">
         <v>13.164539</v>
       </c>
       <c r="M26" s="1">
-        <v>1197.060000</v>
+        <v>1197.06</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.570000</v>
+        <v>-151.57</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>47402.921658</v>
+        <v>47402.921657999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.167478</v>
+        <v>13.167477999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1205.100000</v>
+        <v>1205.0999999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.249000</v>
+        <v>-129.249</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>47413.377293</v>
+        <v>47413.377292999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.170383</v>
+        <v>13.170382999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1212.400000</v>
+        <v>1212.4000000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.257000</v>
+        <v>-108.25700000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>47424.271424</v>
+        <v>47424.271423999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.173409</v>
+        <v>13.173408999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>1220.070000</v>
+        <v>1220.07</v>
       </c>
       <c r="AC26" s="1">
-        <v>-91.263000</v>
+        <v>-91.263000000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>47434.679012</v>
+        <v>47434.679012000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.176300</v>
+        <v>13.176299999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1224.840000</v>
+        <v>1224.8399999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.692000</v>
+        <v>-86.691999999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>47445.250210</v>
+        <v>47445.250209999998</v>
       </c>
       <c r="AK26" s="1">
         <v>13.179236</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.960000</v>
+        <v>1231.96</v>
       </c>
       <c r="AM26" s="1">
-        <v>-90.141700</v>
+        <v>-90.1417</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>47456.265366</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.182296</v>
+        <v>13.182295999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.930000</v>
+        <v>1239.93</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.206000</v>
+        <v>-102.206</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>47467.437288</v>
+        <v>47467.437288000001</v>
       </c>
       <c r="AU26" s="1">
         <v>13.185399</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.890000</v>
+        <v>1249.8900000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.721000</v>
+        <v>-121.721</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>47478.334388</v>
+        <v>47478.334388000003</v>
       </c>
       <c r="AZ26" s="1">
         <v>13.188426</v>
       </c>
       <c r="BA26" s="1">
-        <v>1258.370000</v>
+        <v>1258.3699999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.418000</v>
+        <v>-139.41800000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>47489.067290</v>
+        <v>47489.067289999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.191408</v>
+        <v>13.191407999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1298.590000</v>
+        <v>1298.5899999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-222.286000</v>
+        <v>-222.286</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>47500.428682</v>
+        <v>47500.428681999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.194564</v>
       </c>
       <c r="BK26" s="1">
-        <v>1368.540000</v>
+        <v>1368.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-360.535000</v>
+        <v>-360.53500000000003</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>47511.126896</v>
+        <v>47511.126896000002</v>
       </c>
       <c r="BO26" s="1">
         <v>13.197535</v>
       </c>
       <c r="BP26" s="1">
-        <v>1483.560000</v>
+        <v>1483.56</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-586.071000</v>
+        <v>-586.07100000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>47521.830613</v>
+        <v>47521.830612999998</v>
       </c>
       <c r="BT26" s="1">
         <v>13.200509</v>
       </c>
       <c r="BU26" s="1">
-        <v>1616.450000</v>
+        <v>1616.45</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.370000</v>
+        <v>-841.37</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>47532.699359</v>
+        <v>47532.699358999998</v>
       </c>
       <c r="BY26" s="1">
         <v>13.203528</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1770.200000</v>
+        <v>1770.2</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1118.170000</v>
+        <v>-1118.17</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>47546.449453</v>
+        <v>47546.449453000001</v>
       </c>
       <c r="CD26" s="1">
         <v>13.207347</v>
       </c>
       <c r="CE26" s="1">
-        <v>2192.150000</v>
+        <v>2192.15</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1791.460000</v>
+        <v>-1791.46</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>